--- a/anli UI/BOD 数据 20200113.xlsx
+++ b/anli UI/BOD 数据 20200113.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="794" activeTab="4"/>
+    <workbookView windowWidth="10245" windowHeight="7590" tabRatio="794" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -987,19 +987,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="\+0%;0%;\-0%"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="\$#,##0;\-\$#,##0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="\+0%;0%;\-0%"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,7 +1035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,21 +1073,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,7 +1097,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,38 +1127,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,11 +1156,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1211,55 +1204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,13 +1228,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,49 +1348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,31 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,8 +1395,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,22 +1404,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1456,28 +1449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,36 +1478,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1534,13 +1527,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,97 +1545,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1659,40 +1652,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,19 +1694,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1722,10 +1715,10 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1743,19 +1736,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="24" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1764,34 +1757,34 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="1" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4779,7 +4772,7 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C28"/>
     </sheetView>
   </sheetViews>
@@ -5098,7 +5091,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7658,7 +7651,7 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -9273,7 +9266,7 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
